--- a/dataproject/data/criminalitydata.xlsx
+++ b/dataproject/data/criminalitydata.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fcac5e743701983a/Skrivebord/Latin-power-Project 1/projects-2023-latin-power/dataproject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2316065B-C512-4BE6-9DE7-F37F864FFFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{2316065B-C512-4BE6-9DE7-F37F864FFFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6275B420-834B-48BC-8CEF-279B9ADCA5BB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STRAF11" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -609,6 +622,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -896,7 +913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
